--- a/Geant4Work/data/scatteringRate/0508/scatteringRate0508.xlsx
+++ b/Geant4Work/data/scatteringRate/0508/scatteringRate0508.xlsx
@@ -66,9 +66,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -94,44 +94,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -140,63 +102,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -218,9 +125,102 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -239,13 +239,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -257,7 +281,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -269,151 +413,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -436,17 +436,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -456,15 +450,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -480,6 +465,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -514,13 +510,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -529,142 +529,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1005,8 +1005,8 @@
   <sheetPr/>
   <dimension ref="B2:AB38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="R14" sqref="R14"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="X32" sqref="X32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1023,7 +1023,11 @@
     <col min="14" max="14" width="12.625" style="1"/>
     <col min="15" max="17" width="9" style="1"/>
     <col min="18" max="18" width="11.5" style="1"/>
-    <col min="19" max="16384" width="9" style="1"/>
+    <col min="19" max="25" width="9" style="1"/>
+    <col min="26" max="26" width="10.375" style="1"/>
+    <col min="27" max="27" width="9" style="1"/>
+    <col min="28" max="28" width="12.625" style="1"/>
+    <col min="29" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:27">
@@ -1160,11 +1164,23 @@
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
+      <c r="J4" s="2">
+        <v>65995.8</v>
+      </c>
+      <c r="K4" s="2">
+        <v>20219.9</v>
+      </c>
+      <c r="L4" s="2">
+        <f>J4/K4</f>
+        <v>3.26390338231148</v>
+      </c>
+      <c r="M4" s="2">
+        <v>4.37503584691074</v>
+      </c>
+      <c r="N4" s="1">
+        <f>ABS(M4-L4)/M4</f>
+        <v>0.253971053833499</v>
+      </c>
       <c r="P4" s="2">
         <v>0.5</v>
       </c>
@@ -1188,11 +1204,23 @@
       </c>
       <c r="V4" s="2"/>
       <c r="W4" s="2"/>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
-      <c r="Z4" s="2"/>
-      <c r="AA4" s="2"/>
-      <c r="AB4" s="2"/>
+      <c r="X4" s="2">
+        <v>54797</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>20785.1</v>
+      </c>
+      <c r="Z4" s="2">
+        <f>X4/Y4</f>
+        <v>2.63635969997739</v>
+      </c>
+      <c r="AA4" s="2">
+        <v>3.17981806299695</v>
+      </c>
+      <c r="AB4" s="1">
+        <f>ABS(AA4-Z4)/AA4</f>
+        <v>0.170908634473055</v>
+      </c>
     </row>
     <row r="5" spans="2:28">
       <c r="B5" s="2">
@@ -1218,11 +1246,23 @@
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
+      <c r="J5" s="2">
+        <v>101909</v>
+      </c>
+      <c r="K5" s="2">
+        <v>37102.1</v>
+      </c>
+      <c r="L5" s="2">
+        <f t="shared" ref="L5:L38" si="5">J5/K5</f>
+        <v>2.74671784076912</v>
+      </c>
+      <c r="M5" s="2">
+        <v>3.47033321735304</v>
+      </c>
+      <c r="N5" s="1">
+        <f t="shared" ref="N5:N38" si="6">ABS(M5-L5)/M5</f>
+        <v>0.208514667400109</v>
+      </c>
       <c r="P5" s="2">
         <v>1</v>
       </c>
@@ -1230,7 +1270,7 @@
         <v>0.05995</v>
       </c>
       <c r="R5" s="2">
-        <f t="shared" ref="R5:R38" si="5">7.874*Q5</f>
+        <f t="shared" ref="R5:R38" si="7">7.874*Q5</f>
         <v>0.4720463</v>
       </c>
       <c r="S5" s="2">
@@ -1246,11 +1286,23 @@
       </c>
       <c r="V5" s="2"/>
       <c r="W5" s="2"/>
-      <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
-      <c r="Z5" s="2"/>
-      <c r="AA5" s="2"/>
-      <c r="AB5" s="2"/>
+      <c r="X5" s="2">
+        <v>94331.8</v>
+      </c>
+      <c r="Y5" s="2">
+        <v>37368.6</v>
+      </c>
+      <c r="Z5" s="2">
+        <f t="shared" ref="Z5:Z38" si="8">X5/Y5</f>
+        <v>2.52436002419143</v>
+      </c>
+      <c r="AA5" s="2">
+        <v>2.83800033806516</v>
+      </c>
+      <c r="AB5" s="1">
+        <f t="shared" ref="AB5:AB38" si="9">ABS(AA5-Z5)/AA5</f>
+        <v>0.110514544225726</v>
+      </c>
     </row>
     <row r="6" spans="2:28">
       <c r="B6" s="2">
@@ -1276,11 +1328,23 @@
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
+      <c r="J6" s="2">
+        <v>146660</v>
+      </c>
+      <c r="K6" s="2">
+        <v>63562.3</v>
+      </c>
+      <c r="L6" s="2">
+        <f t="shared" si="5"/>
+        <v>2.30734255997659</v>
+      </c>
+      <c r="M6" s="2">
+        <v>2.66422563526345</v>
+      </c>
+      <c r="N6" s="1">
+        <f t="shared" si="6"/>
+        <v>0.133953772744766</v>
+      </c>
       <c r="P6" s="2">
         <v>2</v>
       </c>
@@ -1288,7 +1352,7 @@
         <v>0.04365</v>
       </c>
       <c r="R6" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.3437001</v>
       </c>
       <c r="S6" s="2">
@@ -1304,11 +1368,23 @@
       </c>
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
-      <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
-      <c r="Z6" s="2"/>
-      <c r="AA6" s="2"/>
-      <c r="AB6" s="2"/>
+      <c r="X6" s="2">
+        <v>147427</v>
+      </c>
+      <c r="Y6" s="2">
+        <v>66478</v>
+      </c>
+      <c r="Z6" s="2">
+        <f t="shared" si="8"/>
+        <v>2.21768103733566</v>
+      </c>
+      <c r="AA6" s="2">
+        <v>2.51338063997945</v>
+      </c>
+      <c r="AB6" s="1">
+        <f t="shared" si="9"/>
+        <v>0.117650147351421</v>
+      </c>
     </row>
     <row r="7" spans="2:28">
       <c r="B7" s="2">
@@ -1334,11 +1410,23 @@
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
+      <c r="J7" s="2">
+        <v>179208</v>
+      </c>
+      <c r="K7" s="2">
+        <v>85078</v>
+      </c>
+      <c r="L7" s="2">
+        <f t="shared" si="5"/>
+        <v>2.10639648322716</v>
+      </c>
+      <c r="M7" s="2">
+        <v>2.34324357723524</v>
+      </c>
+      <c r="N7" s="1">
+        <f t="shared" si="6"/>
+        <v>0.101076600106394</v>
+      </c>
       <c r="P7" s="2">
         <v>3</v>
       </c>
@@ -1346,7 +1434,7 @@
         <v>0.03621</v>
       </c>
       <c r="R7" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.28511754</v>
       </c>
       <c r="S7" s="2">
@@ -1362,11 +1450,23 @@
       </c>
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
-      <c r="X7" s="2"/>
-      <c r="Y7" s="2"/>
-      <c r="Z7" s="2"/>
-      <c r="AA7" s="2"/>
-      <c r="AB7" s="2"/>
+      <c r="X7" s="2">
+        <v>176970</v>
+      </c>
+      <c r="Y7" s="2">
+        <v>84831.6</v>
+      </c>
+      <c r="Z7" s="2">
+        <f t="shared" si="8"/>
+        <v>2.08613299760938</v>
+      </c>
+      <c r="AA7" s="2">
+        <v>2.17812012987133</v>
+      </c>
+      <c r="AB7" s="1">
+        <f t="shared" si="9"/>
+        <v>0.0422323502732526</v>
+      </c>
     </row>
     <row r="8" spans="2:28">
       <c r="B8" s="2">
@@ -1392,11 +1492,23 @@
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
+      <c r="J8" s="2">
+        <v>206170</v>
+      </c>
+      <c r="K8" s="2">
+        <v>103463</v>
+      </c>
+      <c r="L8" s="2">
+        <f t="shared" si="5"/>
+        <v>1.99269304002397</v>
+      </c>
+      <c r="M8" s="2">
+        <v>2.09298681397248</v>
+      </c>
+      <c r="N8" s="1">
+        <f t="shared" si="6"/>
+        <v>0.0479189707641553</v>
+      </c>
       <c r="P8" s="2">
         <v>4</v>
       </c>
@@ -1404,7 +1516,7 @@
         <v>0.03312</v>
       </c>
       <c r="R8" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.26078688</v>
       </c>
       <c r="S8" s="2">
@@ -1420,13 +1532,25 @@
       </c>
       <c r="V8" s="2"/>
       <c r="W8" s="2"/>
-      <c r="X8" s="2"/>
-      <c r="Y8" s="2"/>
-      <c r="Z8" s="2"/>
-      <c r="AA8" s="2"/>
-      <c r="AB8" s="2"/>
+      <c r="X8" s="2">
+        <v>205371</v>
+      </c>
+      <c r="Y8" s="2">
+        <v>103440</v>
+      </c>
+      <c r="Z8" s="2">
+        <f t="shared" si="8"/>
+        <v>1.98541183294664</v>
+      </c>
+      <c r="AA8" s="2">
+        <v>1.95873219135168</v>
+      </c>
+      <c r="AB8" s="1">
+        <f t="shared" si="9"/>
+        <v>0.0136208725790863</v>
+      </c>
     </row>
-    <row r="9" spans="2:21">
+    <row r="9" spans="2:28">
       <c r="B9" s="1">
         <v>6</v>
       </c>
@@ -1448,6 +1572,23 @@
         <f t="shared" si="4"/>
         <v>279.101766783959</v>
       </c>
+      <c r="J9" s="1">
+        <v>243836</v>
+      </c>
+      <c r="K9" s="1">
+        <v>136292</v>
+      </c>
+      <c r="L9" s="2">
+        <f t="shared" si="5"/>
+        <v>1.78907052504916</v>
+      </c>
+      <c r="M9" s="1">
+        <v>1.85258938494865</v>
+      </c>
+      <c r="N9" s="1">
+        <f t="shared" si="6"/>
+        <v>0.0342865291227238</v>
+      </c>
       <c r="P9" s="1">
         <v>6</v>
       </c>
@@ -1455,7 +1596,7 @@
         <v>0.03057</v>
       </c>
       <c r="R9" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.24070818</v>
       </c>
       <c r="S9" s="2">
@@ -1468,6 +1609,23 @@
       <c r="U9" s="2">
         <f t="shared" si="1"/>
         <v>83.0881609424324</v>
+      </c>
+      <c r="X9" s="1">
+        <v>245642</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>136279</v>
+      </c>
+      <c r="Z9" s="2">
+        <f t="shared" si="8"/>
+        <v>1.80249341424578</v>
+      </c>
+      <c r="AA9" s="1">
+        <v>1.73443438334079</v>
+      </c>
+      <c r="AB9" s="1">
+        <f t="shared" si="9"/>
+        <v>0.0392398995076959</v>
       </c>
     </row>
     <row r="10" spans="2:28">
@@ -1494,11 +1652,23 @@
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
+      <c r="J10" s="2">
+        <v>288914</v>
+      </c>
+      <c r="K10" s="2">
+        <v>168719</v>
+      </c>
+      <c r="L10" s="2">
+        <f t="shared" si="5"/>
+        <v>1.71239753673267</v>
+      </c>
+      <c r="M10" s="2">
+        <v>1.68600794474556</v>
+      </c>
+      <c r="N10" s="1">
+        <f t="shared" si="6"/>
+        <v>0.0156521160350145</v>
+      </c>
       <c r="P10" s="2">
         <v>8</v>
       </c>
@@ -1506,7 +1676,7 @@
         <v>0.02991</v>
       </c>
       <c r="R10" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.23551134</v>
       </c>
       <c r="S10" s="2">
@@ -1522,11 +1692,23 @@
       </c>
       <c r="V10" s="2"/>
       <c r="W10" s="2"/>
-      <c r="X10" s="2"/>
-      <c r="Y10" s="2"/>
-      <c r="Z10" s="2"/>
-      <c r="AA10" s="2"/>
-      <c r="AB10" s="2"/>
+      <c r="X10" s="2">
+        <v>295328</v>
+      </c>
+      <c r="Y10" s="2">
+        <v>168930</v>
+      </c>
+      <c r="Z10" s="2">
+        <f t="shared" si="8"/>
+        <v>1.74822707630379</v>
+      </c>
+      <c r="AA10" s="2">
+        <v>1.56837252223412</v>
+      </c>
+      <c r="AB10" s="1">
+        <f t="shared" si="9"/>
+        <v>0.114675915013784</v>
+      </c>
     </row>
     <row r="11" spans="2:28">
       <c r="B11" s="2">
@@ -1552,11 +1734,23 @@
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
+      <c r="J11" s="2">
+        <v>18548</v>
+      </c>
+      <c r="K11" s="2">
+        <v>2743.18</v>
+      </c>
+      <c r="L11" s="2">
+        <f t="shared" si="5"/>
+        <v>6.7614957822673</v>
+      </c>
+      <c r="M11" s="2">
+        <v>9.17346931558173</v>
+      </c>
+      <c r="N11" s="1">
+        <f t="shared" si="6"/>
+        <v>0.262929263764751</v>
+      </c>
       <c r="P11" s="2">
         <v>0.5</v>
       </c>
@@ -1564,7 +1758,7 @@
         <v>0.08414</v>
       </c>
       <c r="R11" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.66251836</v>
       </c>
       <c r="S11" s="2">
@@ -1580,11 +1774,23 @@
       </c>
       <c r="V11" s="2"/>
       <c r="W11" s="2"/>
-      <c r="X11" s="2"/>
-      <c r="Y11" s="2"/>
-      <c r="Z11" s="2"/>
-      <c r="AA11" s="2"/>
-      <c r="AB11" s="2"/>
+      <c r="X11" s="2">
+        <v>13770.8</v>
+      </c>
+      <c r="Y11" s="2">
+        <v>2892.82</v>
+      </c>
+      <c r="Z11" s="2">
+        <f t="shared" si="8"/>
+        <v>4.76033766359469</v>
+      </c>
+      <c r="AA11" s="2">
+        <v>5.92273938800691</v>
+      </c>
+      <c r="AB11" s="1">
+        <f t="shared" si="9"/>
+        <v>0.196260825989742</v>
+      </c>
     </row>
     <row r="12" spans="2:28">
       <c r="B12" s="2">
@@ -1610,11 +1816,23 @@
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
+      <c r="J12" s="2">
+        <v>25656.1</v>
+      </c>
+      <c r="K12" s="2">
+        <v>5009.97</v>
+      </c>
+      <c r="L12" s="2">
+        <f t="shared" si="5"/>
+        <v>5.12100870863498</v>
+      </c>
+      <c r="M12" s="2">
+        <v>6.57640821883677</v>
+      </c>
+      <c r="N12" s="1">
+        <f t="shared" si="6"/>
+        <v>0.221306138818009</v>
+      </c>
       <c r="P12" s="2">
         <v>1</v>
       </c>
@@ -1622,7 +1840,7 @@
         <v>0.05995</v>
       </c>
       <c r="R12" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.4720463</v>
       </c>
       <c r="S12" s="2">
@@ -1638,11 +1856,23 @@
       </c>
       <c r="V12" s="2"/>
       <c r="W12" s="2"/>
-      <c r="X12" s="2"/>
-      <c r="Y12" s="2"/>
-      <c r="Z12" s="2"/>
-      <c r="AA12" s="2"/>
-      <c r="AB12" s="2"/>
+      <c r="X12" s="2">
+        <v>22462.5</v>
+      </c>
+      <c r="Y12" s="2">
+        <v>5086.11</v>
+      </c>
+      <c r="Z12" s="2">
+        <f t="shared" si="8"/>
+        <v>4.41644006912945</v>
+      </c>
+      <c r="AA12" s="2">
+        <v>5.08258251096204</v>
+      </c>
+      <c r="AB12" s="1">
+        <f t="shared" si="9"/>
+        <v>0.131063773267991</v>
+      </c>
     </row>
     <row r="13" spans="2:28">
       <c r="B13" s="2">
@@ -1668,11 +1898,23 @@
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
+      <c r="J13" s="2">
+        <v>33403</v>
+      </c>
+      <c r="K13" s="2">
+        <v>8648.47</v>
+      </c>
+      <c r="L13" s="2">
+        <f t="shared" si="5"/>
+        <v>3.86230165566858</v>
+      </c>
+      <c r="M13" s="2">
+        <v>4.54423014064724</v>
+      </c>
+      <c r="N13" s="1">
+        <f t="shared" si="6"/>
+        <v>0.150064689479291</v>
+      </c>
       <c r="P13" s="2">
         <v>2</v>
       </c>
@@ -1680,7 +1922,7 @@
         <v>0.04365</v>
       </c>
       <c r="R13" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.3437001</v>
       </c>
       <c r="S13" s="2">
@@ -1696,11 +1938,23 @@
       </c>
       <c r="V13" s="2"/>
       <c r="W13" s="2"/>
-      <c r="X13" s="2"/>
-      <c r="Y13" s="2"/>
-      <c r="Z13" s="2"/>
-      <c r="AA13" s="2"/>
-      <c r="AB13" s="2"/>
+      <c r="X13" s="2">
+        <v>34087.6</v>
+      </c>
+      <c r="Y13" s="2">
+        <v>9452.71</v>
+      </c>
+      <c r="Z13" s="2">
+        <f t="shared" si="8"/>
+        <v>3.60611930335322</v>
+      </c>
+      <c r="AA13" s="2">
+        <v>4.21442451538481</v>
+      </c>
+      <c r="AB13" s="1">
+        <f t="shared" si="9"/>
+        <v>0.144338855711133</v>
+      </c>
     </row>
     <row r="14" spans="2:28">
       <c r="B14" s="2">
@@ -1726,11 +1980,23 @@
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
+      <c r="J14" s="2">
+        <v>38531</v>
+      </c>
+      <c r="K14" s="2">
+        <v>11514.5</v>
+      </c>
+      <c r="L14" s="2">
+        <f t="shared" si="5"/>
+        <v>3.34630248816709</v>
+      </c>
+      <c r="M14" s="2">
+        <v>3.7659892392247</v>
+      </c>
+      <c r="N14" s="1">
+        <f t="shared" si="6"/>
+        <v>0.111441303837609</v>
+      </c>
       <c r="P14" s="2">
         <v>3</v>
       </c>
@@ -1738,7 +2004,7 @@
         <v>0.03621</v>
       </c>
       <c r="R14" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.28511754</v>
       </c>
       <c r="S14" s="2">
@@ -1754,11 +2020,23 @@
       </c>
       <c r="V14" s="2"/>
       <c r="W14" s="2"/>
-      <c r="X14" s="2"/>
-      <c r="Y14" s="2"/>
-      <c r="Z14" s="2"/>
-      <c r="AA14" s="2"/>
-      <c r="AB14" s="2"/>
+      <c r="X14" s="2">
+        <v>37649.3</v>
+      </c>
+      <c r="Y14" s="2">
+        <v>11470.6</v>
+      </c>
+      <c r="Z14" s="2">
+        <f t="shared" si="8"/>
+        <v>3.28224330026328</v>
+      </c>
+      <c r="AA14" s="2">
+        <v>3.49556156309076</v>
+      </c>
+      <c r="AB14" s="1">
+        <f t="shared" si="9"/>
+        <v>0.0610254629985298</v>
+      </c>
     </row>
     <row r="15" spans="2:28">
       <c r="B15" s="2">
@@ -1784,11 +2062,23 @@
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
+      <c r="J15" s="2">
+        <v>42234.9</v>
+      </c>
+      <c r="K15" s="2">
+        <v>14044.7</v>
+      </c>
+      <c r="L15" s="2">
+        <f t="shared" si="5"/>
+        <v>3.00717708459419</v>
+      </c>
+      <c r="M15" s="2">
+        <v>3.21835650130974</v>
+      </c>
+      <c r="N15" s="1">
+        <f t="shared" si="6"/>
+        <v>0.065617161004261</v>
+      </c>
       <c r="P15" s="2">
         <v>4</v>
       </c>
@@ -1796,7 +2086,7 @@
         <v>0.03312</v>
       </c>
       <c r="R15" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.26078688</v>
       </c>
       <c r="S15" s="2">
@@ -1812,11 +2102,23 @@
       </c>
       <c r="V15" s="2"/>
       <c r="W15" s="2"/>
-      <c r="X15" s="2"/>
-      <c r="Y15" s="2"/>
-      <c r="Z15" s="2"/>
-      <c r="AA15" s="2"/>
-      <c r="AB15" s="2"/>
+      <c r="X15" s="2">
+        <v>41877.3</v>
+      </c>
+      <c r="Y15" s="2">
+        <v>13973.9</v>
+      </c>
+      <c r="Z15" s="2">
+        <f t="shared" si="8"/>
+        <v>2.99682264793651</v>
+      </c>
+      <c r="AA15" s="2">
+        <v>3.02959924998478</v>
+      </c>
+      <c r="AB15" s="1">
+        <f t="shared" si="9"/>
+        <v>0.0108187913132188</v>
+      </c>
     </row>
     <row r="16" spans="2:28">
       <c r="B16" s="1">
@@ -1842,11 +2144,23 @@
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
+      <c r="J16" s="2">
+        <v>48651.7</v>
+      </c>
+      <c r="K16" s="2">
+        <v>18431.4</v>
+      </c>
+      <c r="L16" s="2">
+        <f t="shared" si="5"/>
+        <v>2.63960957930488</v>
+      </c>
+      <c r="M16" s="2">
+        <v>2.72023777045402</v>
+      </c>
+      <c r="N16" s="1">
+        <f t="shared" si="6"/>
+        <v>0.0296401263245755</v>
+      </c>
       <c r="P16" s="1">
         <v>6</v>
       </c>
@@ -1854,7 +2168,7 @@
         <v>0.03057</v>
       </c>
       <c r="R16" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.24070818</v>
       </c>
       <c r="S16" s="2">
@@ -1870,11 +2184,23 @@
       </c>
       <c r="V16" s="2"/>
       <c r="W16" s="2"/>
-      <c r="X16" s="2"/>
-      <c r="Y16" s="2"/>
-      <c r="Z16" s="2"/>
-      <c r="AA16" s="2"/>
-      <c r="AB16" s="2"/>
+      <c r="X16" s="2">
+        <v>49337</v>
+      </c>
+      <c r="Y16" s="2">
+        <v>18438.9</v>
+      </c>
+      <c r="Z16" s="2">
+        <f t="shared" si="8"/>
+        <v>2.67570191280391</v>
+      </c>
+      <c r="AA16" s="2">
+        <v>2.58364273989626</v>
+      </c>
+      <c r="AB16" s="1">
+        <f t="shared" si="9"/>
+        <v>0.0356315412677162</v>
+      </c>
     </row>
     <row r="17" spans="2:28">
       <c r="B17" s="2">
@@ -1900,11 +2226,23 @@
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
+      <c r="J17" s="2">
+        <v>54719.7</v>
+      </c>
+      <c r="K17" s="2">
+        <v>22728.4</v>
+      </c>
+      <c r="L17" s="2">
+        <f t="shared" si="5"/>
+        <v>2.40754738564967</v>
+      </c>
+      <c r="M17" s="2">
+        <v>2.38187194447722</v>
+      </c>
+      <c r="N17" s="1">
+        <f t="shared" si="6"/>
+        <v>0.0107795220612025</v>
+      </c>
       <c r="P17" s="2">
         <v>8</v>
       </c>
@@ -1912,7 +2250,7 @@
         <v>0.02991</v>
       </c>
       <c r="R17" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.23551134</v>
       </c>
       <c r="S17" s="2">
@@ -1928,11 +2266,23 @@
       </c>
       <c r="V17" s="2"/>
       <c r="W17" s="2"/>
-      <c r="X17" s="2"/>
-      <c r="Y17" s="2"/>
-      <c r="Z17" s="2"/>
-      <c r="AA17" s="2"/>
-      <c r="AB17" s="2"/>
+      <c r="X17" s="2">
+        <v>57315.9</v>
+      </c>
+      <c r="Y17" s="2">
+        <v>22801.8</v>
+      </c>
+      <c r="Z17" s="2">
+        <f t="shared" si="8"/>
+        <v>2.51365681656711</v>
+      </c>
+      <c r="AA17" s="2">
+        <v>2.22759758351612</v>
+      </c>
+      <c r="AB17" s="1">
+        <f t="shared" si="9"/>
+        <v>0.128416027727713</v>
+      </c>
     </row>
     <row r="18" spans="2:28">
       <c r="B18" s="2">
@@ -1958,11 +2308,23 @@
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
+      <c r="J18" s="2">
+        <v>2053.6</v>
+      </c>
+      <c r="K18" s="2">
+        <v>137.455</v>
+      </c>
+      <c r="L18" s="2">
+        <f t="shared" si="5"/>
+        <v>14.9401622349132</v>
+      </c>
+      <c r="M18" s="2">
+        <v>20.1089811050231</v>
+      </c>
+      <c r="N18" s="1">
+        <f t="shared" si="6"/>
+        <v>0.257040316618465</v>
+      </c>
       <c r="P18" s="2">
         <v>0.5</v>
       </c>
@@ -1970,7 +2332,7 @@
         <v>0.08414</v>
       </c>
       <c r="R18" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.66251836</v>
       </c>
       <c r="S18" s="2">
@@ -1986,11 +2348,23 @@
       </c>
       <c r="V18" s="2"/>
       <c r="W18" s="2"/>
-      <c r="X18" s="2"/>
-      <c r="Y18" s="2"/>
-      <c r="Z18" s="2"/>
-      <c r="AA18" s="2"/>
-      <c r="AB18" s="2"/>
+      <c r="X18" s="2">
+        <v>1376.75</v>
+      </c>
+      <c r="Y18" s="2">
+        <v>151.233</v>
+      </c>
+      <c r="Z18" s="2">
+        <f t="shared" si="8"/>
+        <v>9.10350254243452</v>
+      </c>
+      <c r="AA18" s="2">
+        <v>11.347254802182</v>
+      </c>
+      <c r="AB18" s="1">
+        <f t="shared" si="9"/>
+        <v>0.197735249526257</v>
+      </c>
     </row>
     <row r="19" spans="2:28">
       <c r="B19" s="2">
@@ -2016,11 +2390,23 @@
       </c>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
+      <c r="J19" s="2">
+        <v>2417.65</v>
+      </c>
+      <c r="K19" s="2">
+        <v>245.339</v>
+      </c>
+      <c r="L19" s="2">
+        <f t="shared" si="5"/>
+        <v>9.85432401697243</v>
+      </c>
+      <c r="M19" s="2">
+        <v>12.7253740307012</v>
+      </c>
+      <c r="N19" s="1">
+        <f t="shared" si="6"/>
+        <v>0.22561615924232</v>
+      </c>
       <c r="P19" s="2">
         <v>1</v>
       </c>
@@ -2028,7 +2414,7 @@
         <v>0.05995</v>
       </c>
       <c r="R19" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.4720463</v>
       </c>
       <c r="S19" s="2">
@@ -2044,11 +2430,23 @@
       </c>
       <c r="V19" s="2"/>
       <c r="W19" s="2"/>
-      <c r="X19" s="2"/>
-      <c r="Y19" s="2"/>
-      <c r="Z19" s="2"/>
-      <c r="AA19" s="2"/>
-      <c r="AB19" s="2"/>
+      <c r="X19" s="2">
+        <v>2046.87</v>
+      </c>
+      <c r="Y19" s="2">
+        <v>252.48</v>
+      </c>
+      <c r="Z19" s="2">
+        <f t="shared" si="8"/>
+        <v>8.10705798479087</v>
+      </c>
+      <c r="AA19" s="2">
+        <v>9.37190358133212</v>
+      </c>
+      <c r="AB19" s="1">
+        <f t="shared" si="9"/>
+        <v>0.134961439323884</v>
+      </c>
     </row>
     <row r="20" spans="2:28">
       <c r="B20" s="2">
@@ -2074,11 +2472,23 @@
       </c>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
+      <c r="J20" s="2">
+        <v>2791.24</v>
+      </c>
+      <c r="K20" s="2">
+        <v>428.137</v>
+      </c>
+      <c r="L20" s="2">
+        <f t="shared" si="5"/>
+        <v>6.51950193512824</v>
+      </c>
+      <c r="M20" s="2">
+        <v>7.82463219269385</v>
+      </c>
+      <c r="N20" s="1">
+        <f t="shared" si="6"/>
+        <v>0.166797649451722</v>
+      </c>
       <c r="P20" s="2">
         <v>2</v>
       </c>
@@ -2086,7 +2496,7 @@
         <v>0.04365</v>
       </c>
       <c r="R20" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.3437001</v>
       </c>
       <c r="S20" s="2">
@@ -2102,11 +2512,23 @@
       </c>
       <c r="V20" s="2"/>
       <c r="W20" s="2"/>
-      <c r="X20" s="2"/>
-      <c r="Y20" s="2"/>
-      <c r="Z20" s="2"/>
-      <c r="AA20" s="2"/>
-      <c r="AB20" s="2"/>
+      <c r="X20" s="2">
+        <v>3037.5</v>
+      </c>
+      <c r="Y20" s="2">
+        <v>500.981</v>
+      </c>
+      <c r="Z20" s="2">
+        <f t="shared" si="8"/>
+        <v>6.06310418958004</v>
+      </c>
+      <c r="AA20" s="2">
+        <v>7.16047110810582</v>
+      </c>
+      <c r="AB20" s="1">
+        <f t="shared" si="9"/>
+        <v>0.153253452455598</v>
+      </c>
     </row>
     <row r="21" spans="2:28">
       <c r="B21" s="2">
@@ -2132,11 +2554,23 @@
       </c>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
+      <c r="J21" s="2">
+        <v>3058.15</v>
+      </c>
+      <c r="K21" s="2">
+        <v>574.739</v>
+      </c>
+      <c r="L21" s="2">
+        <f t="shared" si="5"/>
+        <v>5.32093698183001</v>
+      </c>
+      <c r="M21" s="2">
+        <v>6.06455578080069</v>
+      </c>
+      <c r="N21" s="1">
+        <f t="shared" si="6"/>
+        <v>0.122617191736424</v>
+      </c>
       <c r="P21" s="2">
         <v>3</v>
       </c>
@@ -2144,7 +2578,7 @@
         <v>0.03621</v>
       </c>
       <c r="R21" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.28511754</v>
       </c>
       <c r="S21" s="2">
@@ -2160,11 +2594,23 @@
       </c>
       <c r="V21" s="2"/>
       <c r="W21" s="2"/>
-      <c r="X21" s="2"/>
-      <c r="Y21" s="2"/>
-      <c r="Z21" s="2"/>
-      <c r="AA21" s="2"/>
-      <c r="AB21" s="2"/>
+      <c r="X21" s="2">
+        <v>3039.8</v>
+      </c>
+      <c r="Y21" s="2">
+        <v>568.013</v>
+      </c>
+      <c r="Z21" s="2">
+        <f t="shared" si="8"/>
+        <v>5.35163807870595</v>
+      </c>
+      <c r="AA21" s="2">
+        <v>5.76423362226702</v>
+      </c>
+      <c r="AB21" s="1">
+        <f t="shared" si="9"/>
+        <v>0.0715785602386471</v>
+      </c>
     </row>
     <row r="22" spans="2:28">
       <c r="B22" s="2">
@@ -2190,11 +2636,23 @@
       </c>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
+      <c r="J22" s="2">
+        <v>3235.81</v>
+      </c>
+      <c r="K22" s="2">
+        <v>696.151</v>
+      </c>
+      <c r="L22" s="2">
+        <f t="shared" si="5"/>
+        <v>4.64814386533956</v>
+      </c>
+      <c r="M22" s="2">
+        <v>4.97658894343713</v>
+      </c>
+      <c r="N22" s="1">
+        <f t="shared" si="6"/>
+        <v>0.0659980323532057</v>
+      </c>
       <c r="P22" s="2">
         <v>4</v>
       </c>
@@ -2202,7 +2660,7 @@
         <v>0.03312</v>
       </c>
       <c r="R22" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.26078688</v>
       </c>
       <c r="S22" s="2">
@@ -2218,11 +2676,23 @@
       </c>
       <c r="V22" s="2"/>
       <c r="W22" s="2"/>
-      <c r="X22" s="2"/>
-      <c r="Y22" s="2"/>
-      <c r="Z22" s="2"/>
-      <c r="AA22" s="2"/>
-      <c r="AB22" s="2"/>
+      <c r="X22" s="2">
+        <v>3342.06</v>
+      </c>
+      <c r="Y22" s="2">
+        <v>702.961</v>
+      </c>
+      <c r="Z22" s="2">
+        <f t="shared" si="8"/>
+        <v>4.75426090494352</v>
+      </c>
+      <c r="AA22" s="2">
+        <v>4.87149464773389</v>
+      </c>
+      <c r="AB22" s="1">
+        <f t="shared" si="9"/>
+        <v>0.0240652512766092</v>
+      </c>
     </row>
     <row r="23" spans="2:28">
       <c r="B23" s="1">
@@ -2248,11 +2718,23 @@
       </c>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
+      <c r="J23" s="2">
+        <v>3600.72</v>
+      </c>
+      <c r="K23" s="2">
+        <v>935.794</v>
+      </c>
+      <c r="L23" s="2">
+        <f t="shared" si="5"/>
+        <v>3.84776991517364</v>
+      </c>
+      <c r="M23" s="2">
+        <v>4.05693779654903</v>
+      </c>
+      <c r="N23" s="1">
+        <f t="shared" si="6"/>
+        <v>0.0515580696241674</v>
+      </c>
       <c r="P23" s="1">
         <v>6</v>
       </c>
@@ -2260,7 +2742,7 @@
         <v>0.03057</v>
       </c>
       <c r="R23" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.24070818</v>
       </c>
       <c r="S23" s="2">
@@ -2276,11 +2758,23 @@
       </c>
       <c r="V23" s="2"/>
       <c r="W23" s="2"/>
-      <c r="X23" s="2"/>
-      <c r="Y23" s="2"/>
-      <c r="Z23" s="2"/>
-      <c r="AA23" s="2"/>
-      <c r="AB23" s="2"/>
+      <c r="X23" s="2">
+        <v>3808.89</v>
+      </c>
+      <c r="Y23" s="2">
+        <v>914.154</v>
+      </c>
+      <c r="Z23" s="2">
+        <f t="shared" si="8"/>
+        <v>4.16657368452143</v>
+      </c>
+      <c r="AA23" s="2">
+        <v>4.10658034486272</v>
+      </c>
+      <c r="AB23" s="1">
+        <f t="shared" si="9"/>
+        <v>0.0146090748556173</v>
+      </c>
     </row>
     <row r="24" spans="2:28">
       <c r="B24" s="2">
@@ -2306,11 +2800,23 @@
       </c>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
+      <c r="J24" s="2">
+        <v>3914.62</v>
+      </c>
+      <c r="K24" s="2">
+        <v>1129.97</v>
+      </c>
+      <c r="L24" s="2">
+        <f t="shared" si="5"/>
+        <v>3.46435746081754</v>
+      </c>
+      <c r="M24" s="2">
+        <v>3.449570048711</v>
+      </c>
+      <c r="N24" s="1">
+        <f t="shared" si="6"/>
+        <v>0.00428674063658144</v>
+      </c>
       <c r="P24" s="2">
         <v>8</v>
       </c>
@@ -2318,7 +2824,7 @@
         <v>0.02991</v>
       </c>
       <c r="R24" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.23551134</v>
       </c>
       <c r="S24" s="2">
@@ -2334,11 +2840,23 @@
       </c>
       <c r="V24" s="2"/>
       <c r="W24" s="2"/>
-      <c r="X24" s="2"/>
-      <c r="Y24" s="2"/>
-      <c r="Z24" s="2"/>
-      <c r="AA24" s="2"/>
-      <c r="AB24" s="2"/>
+      <c r="X24" s="2">
+        <v>4421.84</v>
+      </c>
+      <c r="Y24" s="2">
+        <v>1151.56</v>
+      </c>
+      <c r="Z24" s="2">
+        <f t="shared" si="8"/>
+        <v>3.83986939456042</v>
+      </c>
+      <c r="AA24" s="2">
+        <v>3.4185691372564</v>
+      </c>
+      <c r="AB24" s="1">
+        <f t="shared" si="9"/>
+        <v>0.123238770488094</v>
+      </c>
     </row>
     <row r="25" spans="2:28">
       <c r="B25" s="2">
@@ -2364,11 +2882,23 @@
       </c>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
+      <c r="J25" s="2">
+        <v>185.623</v>
+      </c>
+      <c r="K25" s="2">
+        <v>6.98497</v>
+      </c>
+      <c r="L25" s="2">
+        <f t="shared" si="5"/>
+        <v>26.5746309576133</v>
+      </c>
+      <c r="M25" s="2">
+        <v>37.5793425505091</v>
+      </c>
+      <c r="N25" s="1">
+        <f t="shared" si="6"/>
+        <v>0.292839385843559</v>
+      </c>
       <c r="P25" s="2">
         <v>0.5</v>
       </c>
@@ -2376,7 +2906,7 @@
         <v>0.08414</v>
       </c>
       <c r="R25" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.66251836</v>
       </c>
       <c r="S25" s="2">
@@ -2392,11 +2922,23 @@
       </c>
       <c r="V25" s="2"/>
       <c r="W25" s="2"/>
-      <c r="X25" s="2"/>
-      <c r="Y25" s="2"/>
-      <c r="Z25" s="2"/>
-      <c r="AA25" s="2"/>
-      <c r="AB25" s="2"/>
+      <c r="X25" s="2">
+        <v>117.269</v>
+      </c>
+      <c r="Y25" s="2">
+        <v>7.593</v>
+      </c>
+      <c r="Z25" s="2">
+        <f t="shared" si="8"/>
+        <v>15.4443566442776</v>
+      </c>
+      <c r="AA25" s="2">
+        <v>18.7754025194886</v>
+      </c>
+      <c r="AB25" s="1">
+        <f t="shared" si="9"/>
+        <v>0.177415417419328</v>
+      </c>
     </row>
     <row r="26" spans="2:28">
       <c r="B26" s="2">
@@ -2422,11 +2964,23 @@
       </c>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
+      <c r="J26" s="2">
+        <v>189.369</v>
+      </c>
+      <c r="K26" s="2">
+        <v>12.1601</v>
+      </c>
+      <c r="L26" s="2">
+        <f t="shared" si="5"/>
+        <v>15.5729804853579</v>
+      </c>
+      <c r="M26" s="2">
+        <v>21.1735753452639</v>
+      </c>
+      <c r="N26" s="1">
+        <f t="shared" si="6"/>
+        <v>0.264508698629341</v>
+      </c>
       <c r="P26" s="2">
         <v>1</v>
       </c>
@@ -2434,7 +2988,7 @@
         <v>0.05995</v>
       </c>
       <c r="R26" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.4720463</v>
       </c>
       <c r="S26" s="2">
@@ -2450,11 +3004,23 @@
       </c>
       <c r="V26" s="2"/>
       <c r="W26" s="2"/>
-      <c r="X26" s="2"/>
-      <c r="Y26" s="2"/>
-      <c r="Z26" s="2"/>
-      <c r="AA26" s="2"/>
-      <c r="AB26" s="2"/>
+      <c r="X26" s="2">
+        <v>158.029</v>
+      </c>
+      <c r="Y26" s="2">
+        <v>12.7179</v>
+      </c>
+      <c r="Z26" s="2">
+        <f t="shared" si="8"/>
+        <v>12.4257149372145</v>
+      </c>
+      <c r="AA26" s="2">
+        <v>15.0335628321351</v>
+      </c>
+      <c r="AB26" s="1">
+        <f t="shared" si="9"/>
+        <v>0.173468386971198</v>
+      </c>
     </row>
     <row r="27" spans="2:28">
       <c r="B27" s="2">
@@ -2480,11 +3046,23 @@
       </c>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
+      <c r="J27" s="2">
+        <v>200.197</v>
+      </c>
+      <c r="K27" s="2">
+        <v>22.3243</v>
+      </c>
+      <c r="L27" s="2">
+        <f t="shared" si="5"/>
+        <v>8.96767199867409</v>
+      </c>
+      <c r="M27" s="2">
+        <v>11.7446188343215</v>
+      </c>
+      <c r="N27" s="1">
+        <f t="shared" si="6"/>
+        <v>0.236444185615653</v>
+      </c>
       <c r="P27" s="2">
         <v>2</v>
       </c>
@@ -2492,7 +3070,7 @@
         <v>0.04365</v>
       </c>
       <c r="R27" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.3437001</v>
       </c>
       <c r="S27" s="2">
@@ -2508,11 +3086,23 @@
       </c>
       <c r="V27" s="2"/>
       <c r="W27" s="2"/>
-      <c r="X27" s="2"/>
-      <c r="Y27" s="2"/>
-      <c r="Z27" s="2"/>
-      <c r="AA27" s="2"/>
-      <c r="AB27" s="2"/>
+      <c r="X27" s="2">
+        <v>233.936</v>
+      </c>
+      <c r="Y27" s="2">
+        <v>26.4604</v>
+      </c>
+      <c r="Z27" s="2">
+        <f t="shared" si="8"/>
+        <v>8.84098501912292</v>
+      </c>
+      <c r="AA27" s="2">
+        <v>10.6454192288343</v>
+      </c>
+      <c r="AB27" s="1">
+        <f t="shared" si="9"/>
+        <v>0.169503348898076</v>
+      </c>
     </row>
     <row r="28" spans="2:28">
       <c r="B28" s="2">
@@ -2538,11 +3128,23 @@
       </c>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
+      <c r="J28" s="2">
+        <v>213.449</v>
+      </c>
+      <c r="K28" s="2">
+        <v>28.5718</v>
+      </c>
+      <c r="L28" s="2">
+        <f t="shared" si="5"/>
+        <v>7.47061788196754</v>
+      </c>
+      <c r="M28" s="2">
+        <v>8.58315266941106</v>
+      </c>
+      <c r="N28" s="1">
+        <f t="shared" si="6"/>
+        <v>0.129618431629256</v>
+      </c>
       <c r="P28" s="2">
         <v>3</v>
       </c>
@@ -2550,7 +3152,7 @@
         <v>0.03621</v>
       </c>
       <c r="R28" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.28511754</v>
       </c>
       <c r="S28" s="2">
@@ -2566,11 +3168,23 @@
       </c>
       <c r="V28" s="2"/>
       <c r="W28" s="2"/>
-      <c r="X28" s="2"/>
-      <c r="Y28" s="2"/>
-      <c r="Z28" s="2"/>
-      <c r="AA28" s="2"/>
-      <c r="AB28" s="2"/>
+      <c r="X28" s="2">
+        <v>212.813</v>
+      </c>
+      <c r="Y28" s="2">
+        <v>27.5845</v>
+      </c>
+      <c r="Z28" s="2">
+        <f t="shared" si="8"/>
+        <v>7.7149486124454</v>
+      </c>
+      <c r="AA28" s="2">
+        <v>8.4319625434078</v>
+      </c>
+      <c r="AB28" s="1">
+        <f t="shared" si="9"/>
+        <v>0.0850352367282482</v>
+      </c>
     </row>
     <row r="29" spans="2:28">
       <c r="B29" s="2">
@@ -2596,11 +3210,23 @@
       </c>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
+      <c r="J29" s="2">
+        <v>218.635</v>
+      </c>
+      <c r="K29" s="2">
+        <v>34.408</v>
+      </c>
+      <c r="L29" s="2">
+        <f t="shared" si="5"/>
+        <v>6.3541908858405</v>
+      </c>
+      <c r="M29" s="2">
+        <v>6.83241805870317</v>
+      </c>
+      <c r="N29" s="1">
+        <f t="shared" si="6"/>
+        <v>0.0699938394802262</v>
+      </c>
       <c r="P29" s="2">
         <v>4</v>
       </c>
@@ -2608,7 +3234,7 @@
         <v>0.03312</v>
       </c>
       <c r="R29" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.26078688</v>
       </c>
       <c r="S29" s="2">
@@ -2624,11 +3250,23 @@
       </c>
       <c r="V29" s="2"/>
       <c r="W29" s="2"/>
-      <c r="X29" s="2"/>
-      <c r="Y29" s="2"/>
-      <c r="Z29" s="2"/>
-      <c r="AA29" s="2"/>
-      <c r="AB29" s="2"/>
+      <c r="X29" s="2">
+        <v>237.194</v>
+      </c>
+      <c r="Y29" s="2">
+        <v>36.1284</v>
+      </c>
+      <c r="Z29" s="2">
+        <f t="shared" si="8"/>
+        <v>6.56530596428295</v>
+      </c>
+      <c r="AA29" s="2">
+        <v>7.03505818204185</v>
+      </c>
+      <c r="AB29" s="1">
+        <f t="shared" si="9"/>
+        <v>0.0667730394836</v>
+      </c>
     </row>
     <row r="30" spans="2:28">
       <c r="B30" s="1">
@@ -2654,11 +3292,23 @@
       </c>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
+      <c r="J30" s="2">
+        <v>237.241</v>
+      </c>
+      <c r="K30" s="2">
+        <v>46.8406</v>
+      </c>
+      <c r="L30" s="2">
+        <f t="shared" si="5"/>
+        <v>5.06485826398466</v>
+      </c>
+      <c r="M30" s="2">
+        <v>5.44559754999225</v>
+      </c>
+      <c r="N30" s="1">
+        <f t="shared" si="6"/>
+        <v>0.0699168975511474</v>
+      </c>
       <c r="P30" s="1">
         <v>6</v>
       </c>
@@ -2666,7 +3316,7 @@
         <v>0.03057</v>
       </c>
       <c r="R30" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.24070818</v>
       </c>
       <c r="S30" s="2">
@@ -2682,11 +3332,23 @@
       </c>
       <c r="V30" s="2"/>
       <c r="W30" s="2"/>
-      <c r="X30" s="2"/>
-      <c r="Y30" s="2"/>
-      <c r="Z30" s="2"/>
-      <c r="AA30" s="2"/>
-      <c r="AB30" s="2"/>
+      <c r="X30" s="2">
+        <v>263.906</v>
+      </c>
+      <c r="Y30" s="2">
+        <v>42.789</v>
+      </c>
+      <c r="Z30" s="2">
+        <f t="shared" si="8"/>
+        <v>6.16761317160953</v>
+      </c>
+      <c r="AA30" s="2">
+        <v>5.98238307864619</v>
+      </c>
+      <c r="AB30" s="1">
+        <f t="shared" si="9"/>
+        <v>0.0309625930884476</v>
+      </c>
     </row>
     <row r="31" spans="2:28">
       <c r="B31" s="2">
@@ -2712,11 +3374,23 @@
       </c>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
+      <c r="J31" s="2">
+        <v>252.56</v>
+      </c>
+      <c r="K31" s="2">
+        <v>55.6323</v>
+      </c>
+      <c r="L31" s="2">
+        <f t="shared" si="5"/>
+        <v>4.53980870825042</v>
+      </c>
+      <c r="M31" s="2">
+        <v>4.55341080097102</v>
+      </c>
+      <c r="N31" s="1">
+        <f t="shared" si="6"/>
+        <v>0.00298723161936025</v>
+      </c>
       <c r="P31" s="2">
         <v>8</v>
       </c>
@@ -2724,7 +3398,7 @@
         <v>0.02991</v>
       </c>
       <c r="R31" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.23551134</v>
       </c>
       <c r="S31" s="2">
@@ -2740,11 +3414,23 @@
       </c>
       <c r="V31" s="2"/>
       <c r="W31" s="2"/>
-      <c r="X31" s="2"/>
-      <c r="Y31" s="2"/>
-      <c r="Z31" s="2"/>
-      <c r="AA31" s="2"/>
-      <c r="AB31" s="2"/>
+      <c r="X31" s="2">
+        <v>313.081</v>
+      </c>
+      <c r="Y31" s="2">
+        <v>55.1443</v>
+      </c>
+      <c r="Z31" s="2">
+        <f t="shared" si="8"/>
+        <v>5.67748615904092</v>
+      </c>
+      <c r="AA31" s="2">
+        <v>4.90373476470258</v>
+      </c>
+      <c r="AB31" s="1">
+        <f t="shared" si="9"/>
+        <v>0.157788182164307</v>
+      </c>
     </row>
     <row r="32" spans="2:28">
       <c r="B32" s="2">
@@ -2772,9 +3458,17 @@
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
+      <c r="L32" s="2" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M32" s="2">
+        <v>90.9179754546632</v>
+      </c>
+      <c r="N32" s="1" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="P32" s="2">
         <v>0.5</v>
       </c>
@@ -2782,7 +3476,7 @@
         <v>0.08414</v>
       </c>
       <c r="R32" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.66251836</v>
       </c>
       <c r="S32" s="2">
@@ -2800,9 +3494,17 @@
       <c r="W32" s="2"/>
       <c r="X32" s="2"/>
       <c r="Y32" s="2"/>
-      <c r="Z32" s="2"/>
-      <c r="AA32" s="2"/>
-      <c r="AB32" s="2"/>
+      <c r="Z32" s="2" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA32" s="2">
+        <v>37.3472293878307</v>
+      </c>
+      <c r="AB32" s="1" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="33" spans="2:28">
       <c r="B33" s="2">
@@ -2830,9 +3532,17 @@
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
+      <c r="L33" s="2" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M33" s="2">
+        <v>42.4587825074843</v>
+      </c>
+      <c r="N33" s="1" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="P33" s="2">
         <v>1</v>
       </c>
@@ -2840,7 +3550,7 @@
         <v>0.05995</v>
       </c>
       <c r="R33" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.4720463</v>
       </c>
       <c r="S33" s="2">
@@ -2858,9 +3568,17 @@
       <c r="W33" s="2"/>
       <c r="X33" s="2"/>
       <c r="Y33" s="2"/>
-      <c r="Z33" s="2"/>
-      <c r="AA33" s="2"/>
-      <c r="AB33" s="2"/>
+      <c r="Z33" s="2" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA33" s="2">
+        <v>28.5572541378952</v>
+      </c>
+      <c r="AB33" s="1" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="34" spans="2:28">
       <c r="B34" s="2">
@@ -2888,9 +3606,17 @@
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
+      <c r="L34" s="2" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M34" s="2">
+        <v>20.0141771726114</v>
+      </c>
+      <c r="N34" s="1" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="P34" s="2">
         <v>2</v>
       </c>
@@ -2898,7 +3624,7 @@
         <v>0.04365</v>
       </c>
       <c r="R34" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.3437001</v>
       </c>
       <c r="S34" s="2">
@@ -2916,11 +3642,19 @@
       <c r="W34" s="2"/>
       <c r="X34" s="2"/>
       <c r="Y34" s="2"/>
-      <c r="Z34" s="2"/>
-      <c r="AA34" s="2"/>
-      <c r="AB34" s="2"/>
+      <c r="Z34" s="2" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA34" s="2">
+        <v>17.8835971117521</v>
+      </c>
+      <c r="AB34" s="1" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="35" spans="2:21">
+    <row r="35" spans="2:28">
       <c r="B35" s="2">
         <v>3</v>
       </c>
@@ -2942,6 +3676,17 @@
         <f t="shared" si="4"/>
         <v>1569.5040754266</v>
       </c>
+      <c r="L35" s="2" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M35" s="1">
+        <v>13.3462298630132</v>
+      </c>
+      <c r="N35" s="1" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="P35" s="2">
         <v>3</v>
       </c>
@@ -2949,7 +3694,7 @@
         <v>0.03621</v>
       </c>
       <c r="R35" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.28511754</v>
       </c>
       <c r="S35" s="2">
@@ -2963,8 +3708,19 @@
         <f t="shared" si="1"/>
         <v>526.098815246512</v>
       </c>
+      <c r="Z35" s="2" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA35" s="1">
+        <v>13.9350732927301</v>
+      </c>
+      <c r="AB35" s="1" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="36" spans="2:21">
+    <row r="36" spans="2:28">
       <c r="B36" s="2">
         <v>4</v>
       </c>
@@ -2986,6 +3742,17 @@
         <f t="shared" si="4"/>
         <v>1789.31549616407</v>
       </c>
+      <c r="L36" s="2" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M36" s="1">
+        <v>10.1853847613353</v>
+      </c>
+      <c r="N36" s="1" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="P36" s="2">
         <v>4</v>
       </c>
@@ -2993,7 +3760,7 @@
         <v>0.03312</v>
       </c>
       <c r="R36" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.26078688</v>
       </c>
       <c r="S36" s="2">
@@ -3007,8 +3774,19 @@
         <f t="shared" si="1"/>
         <v>575.18230978491</v>
       </c>
+      <c r="Z36" s="2" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA36" s="1">
+        <v>11.4938996771221</v>
+      </c>
+      <c r="AB36" s="1" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="37" spans="2:21">
+    <row r="37" spans="2:28">
       <c r="B37" s="1">
         <v>6</v>
       </c>
@@ -3030,6 +3808,17 @@
         <f t="shared" si="4"/>
         <v>2093.26325087969</v>
       </c>
+      <c r="L37" s="2" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M37" s="1">
+        <v>7.90593334395023</v>
+      </c>
+      <c r="N37" s="1" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="P37" s="1">
         <v>6</v>
       </c>
@@ -3037,7 +3826,7 @@
         <v>0.03057</v>
       </c>
       <c r="R37" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.24070818</v>
       </c>
       <c r="S37" s="2">
@@ -3051,8 +3840,19 @@
         <f t="shared" si="1"/>
         <v>623.161207068243</v>
       </c>
+      <c r="Z37" s="2" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA37" s="1">
+        <v>10.092511948709</v>
+      </c>
+      <c r="AB37" s="1" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="38" spans="2:21">
+    <row r="38" spans="2:28">
       <c r="B38" s="2">
         <v>8</v>
       </c>
@@ -3074,6 +3874,17 @@
         <f t="shared" si="4"/>
         <v>2280.5145388123</v>
       </c>
+      <c r="L38" s="2" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M38" s="1">
+        <v>6.49670555895807</v>
+      </c>
+      <c r="N38" s="1" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="P38" s="2">
         <v>8</v>
       </c>
@@ -3081,7 +3892,7 @@
         <v>0.02991</v>
       </c>
       <c r="R38" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.23551134</v>
       </c>
       <c r="S38" s="2">
@@ -3094,6 +3905,17 @@
       <c r="U38" s="2">
         <f t="shared" si="1"/>
         <v>636.912006020602</v>
+      </c>
+      <c r="Z38" s="2" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA38" s="1">
+        <v>8.22973255764427</v>
+      </c>
+      <c r="AB38" s="1" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
